--- a/arch-framework/src/test/resources/uni-life.xlsx
+++ b/arch-framework/src/test/resources/uni-life.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="30800" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
   <si>
     <t>表名/Table</t>
   </si>
@@ -54,7 +54,7 @@
     <t>备注/Comment</t>
   </si>
   <si>
-    <t>用户表/UserMaster</t>
+    <t>用户身份证表/UserIdcard</t>
   </si>
   <si>
     <t>uid</t>
@@ -72,640 +72,637 @@
     <t>Y</t>
   </si>
   <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>idcard</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>名族</t>
+  </si>
+  <si>
+    <t>domicile</t>
+  </si>
+  <si>
+    <t>居住地</t>
+  </si>
+  <si>
+    <t>signOrg</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>颁发机构</t>
+  </si>
+  <si>
+    <t>用户地址表/UserAddress</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>街道</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>地址类型：工作地址/家庭地址/收货地址...</t>
+  </si>
+  <si>
+    <t>indx</t>
+  </si>
+  <si>
+    <t>顺序</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>用户银行卡信息/UserBankcard</t>
+  </si>
+  <si>
+    <t>cardNo</t>
+  </si>
+  <si>
+    <t>cardBin</t>
+  </si>
+  <si>
+    <t>用户关系表/UserRelationship</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>父节点ID</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>组</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>fromUid</t>
+  </si>
+  <si>
+    <t>推荐人ID</t>
+  </si>
+  <si>
+    <t>fromUserName</t>
+  </si>
+  <si>
+    <t>推荐人姓名</t>
+  </si>
+  <si>
+    <t>fromUserPhone</t>
+  </si>
+  <si>
+    <t>推荐人手机</t>
+  </si>
+  <si>
+    <t>toUid</t>
+  </si>
+  <si>
+    <t>账号ID</t>
+  </si>
+  <si>
+    <t>toUserPhone</t>
+  </si>
+  <si>
+    <t>用户手机</t>
+  </si>
+  <si>
+    <t>toUserName</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>用户组织架构表/UserOrg</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>组ID</t>
+  </si>
+  <si>
+    <t>postId</t>
+  </si>
+  <si>
+    <t>职位ID</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>组名</t>
+  </si>
+  <si>
+    <t>postName</t>
+  </si>
+  <si>
+    <t>职位名</t>
+  </si>
+  <si>
+    <t>用户角色表/UserRole</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>用户标签/UserTag</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>tagName</t>
+  </si>
+  <si>
+    <t>标签名</t>
+  </si>
+  <si>
+    <t>tagColor</t>
+  </si>
+  <si>
+    <t>标签色</t>
+  </si>
+  <si>
+    <t>用户会员/UserMember</t>
+  </si>
+  <si>
+    <t>memberLevelId</t>
+  </si>
+  <si>
+    <t>会员级别ID</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>用户券/UserTicket</t>
+  </si>
+  <si>
+    <t>operatorTyp</t>
+  </si>
+  <si>
+    <t>操作类型(会员充值/)</t>
+  </si>
+  <si>
+    <t>operatorTime</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>recordVal</t>
+  </si>
+  <si>
+    <t>记录的值</t>
+  </si>
+  <si>
+    <t>用户操作记录/UserOperatorLog</t>
+  </si>
+  <si>
+    <t>角色表/RbacClient</t>
+  </si>
+  <si>
+    <t>授权码/RbacOauthcode</t>
+  </si>
+  <si>
+    <t>用户名/RbacUsername</t>
+  </si>
+  <si>
+    <t>usernameId</t>
+  </si>
+  <si>
     <t>账号ID/用户ID/会员ID/商户ID</t>
   </si>
   <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>nickName</t>
   </si>
   <si>
     <t>用户昵称可随机生成</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>来源，推广统计用</t>
+  </si>
+  <si>
+    <t>用户标示/RbacIdentifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>识别标识:身份唯一标识，如：登录账号、邮箱地址、手机号码、QQ号码、微信号、微博号；</t>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>授权凭证【CREDENTIAL】：站内账号是密码、第三方登录是Token；</t>
+  </si>
+  <si>
+    <t>chanelType</t>
+  </si>
+  <si>
+    <t>登录类型【IDENTITYTYPE】：登录类别，如：系统用户、邮箱、手机，或者第三方的QQ、微信、微博；</t>
+  </si>
+  <si>
+    <t>资源类目表/RbacCategory</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>资源类目名</t>
+  </si>
+  <si>
+    <t>sorted</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>资源表/RbacResource</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>类目id</t>
+  </si>
+  <si>
+    <t>resourceName</t>
+  </si>
+  <si>
+    <t>资源名</t>
+  </si>
+  <si>
+    <t>resourceCode</t>
+  </si>
+  <si>
+    <t>资源码</t>
+  </si>
+  <si>
+    <t>resourceTyp</t>
+  </si>
+  <si>
+    <t>类型:1目录、2菜单、3按钮、4链接</t>
+  </si>
+  <si>
+    <t>resourceVal</t>
+  </si>
+  <si>
+    <t>资源值</t>
+  </si>
+  <si>
+    <t>resourcePath</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>resourceIcon</t>
+  </si>
+  <si>
+    <t>资源图标</t>
+  </si>
+  <si>
+    <t>resourceDescr</t>
+  </si>
+  <si>
+    <t>资源描述</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>是否隐藏</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>层级</t>
+  </si>
+  <si>
+    <t>权限表/RbacMenu</t>
+  </si>
+  <si>
+    <t>menuCode</t>
+  </si>
+  <si>
+    <t>英文码</t>
+  </si>
+  <si>
+    <t>menuName</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>menuVal</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>isFrame</t>
+  </si>
+  <si>
+    <t>是否iframe</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>来源，推广统计用</t>
-  </si>
-  <si>
-    <t>用户身份标识表/UserIdentifier</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>识别标识:身份唯一标识，如：登录账号、邮箱地址、手机号码、QQ号码、微信号、微博号；</t>
-  </si>
-  <si>
-    <t>credential</t>
-  </si>
-  <si>
-    <t>授权凭证【CREDENTIAL】：站内账号是密码、第三方登录是Token；</t>
-  </si>
-  <si>
-    <t>chanelType</t>
-  </si>
-  <si>
-    <t>登录类型【IDENTITYTYPE】：登录类别，如：系统用户、邮箱、手机，或者第三方的QQ、微信、微博；</t>
-  </si>
-  <si>
-    <t>用户身份证表/UserIdcard</t>
-  </si>
-  <si>
-    <t>idcard</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>名族</t>
-  </si>
-  <si>
-    <t>domicile</t>
-  </si>
-  <si>
-    <t>居住地</t>
-  </si>
-  <si>
-    <t>signOrg</t>
-  </si>
-  <si>
-    <t>颁发机构</t>
-  </si>
-  <si>
-    <t>用户地址表/UserAddress</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>区</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>街道</t>
-  </si>
-  <si>
-    <t>typ</t>
-  </si>
-  <si>
-    <t>地址类型：工作地址/家庭地址/收货地址...</t>
-  </si>
-  <si>
-    <t>indx</t>
-  </si>
-  <si>
-    <t>顺序</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>phoneNum</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>用户关系表/UserRelationship</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>父节点ID</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>组</t>
-  </si>
-  <si>
-    <t>deep</t>
-  </si>
-  <si>
-    <t>深度</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>fromUid</t>
-  </si>
-  <si>
-    <t>推荐人ID</t>
-  </si>
-  <si>
-    <t>fromUserName</t>
-  </si>
-  <si>
-    <t>推荐人姓名</t>
-  </si>
-  <si>
-    <t>fromUserPhone</t>
-  </si>
-  <si>
-    <t>推荐人手机</t>
-  </si>
-  <si>
-    <t>toUid</t>
-  </si>
-  <si>
-    <t>账号ID</t>
-  </si>
-  <si>
-    <t>toUserPhone</t>
-  </si>
-  <si>
-    <t>用户手机</t>
-  </si>
-  <si>
-    <t>toUserName</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>用户组织架构表/UserOrg</t>
-  </si>
-  <si>
-    <t>groupId</t>
-  </si>
-  <si>
-    <t>组ID</t>
-  </si>
-  <si>
-    <t>postId</t>
-  </si>
-  <si>
-    <t>职位ID</t>
-  </si>
-  <si>
-    <t>groupName</t>
-  </si>
-  <si>
-    <t>组名</t>
-  </si>
-  <si>
-    <t>postName</t>
-  </si>
-  <si>
-    <t>职位名</t>
-  </si>
-  <si>
-    <t>用户角色表/UserRole</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>用户标签/UserTag</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>tagName</t>
-  </si>
-  <si>
-    <t>标签名</t>
-  </si>
-  <si>
-    <t>tagColor</t>
-  </si>
-  <si>
-    <t>标签色</t>
-  </si>
-  <si>
-    <t>用户会员/UserMember</t>
-  </si>
-  <si>
-    <t>memberLevelId</t>
-  </si>
-  <si>
-    <t>会员级别ID</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>用户券/UserTicket</t>
-  </si>
-  <si>
-    <t>operatorTyp</t>
-  </si>
-  <si>
-    <t>操作类型(会员充值/)</t>
-  </si>
-  <si>
-    <t>operatorTime</t>
-  </si>
-  <si>
-    <t>操作时间</t>
-  </si>
-  <si>
-    <t>recordVal</t>
-  </si>
-  <si>
-    <t>记录的值</t>
-  </si>
-  <si>
-    <t>用户操作记录/UserOperatorLog</t>
-  </si>
-  <si>
-    <t>角色表/RbacClient</t>
-  </si>
-  <si>
-    <t>roleCode</t>
-  </si>
-  <si>
-    <t>角色码</t>
-  </si>
-  <si>
-    <t>角色图标</t>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>权限表/RbacPermission</t>
+  </si>
+  <si>
+    <t>permissionCode</t>
+  </si>
+  <si>
+    <t>权限码query/creat/update/delete</t>
+  </si>
+  <si>
+    <t>permissionName</t>
+  </si>
+  <si>
+    <t>权限名称</t>
+  </si>
+  <si>
+    <t>permissionVal</t>
+  </si>
+  <si>
+    <t>权限值</t>
+  </si>
+  <si>
+    <t>permissionUri</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>permissionTyp</t>
+  </si>
+  <si>
+    <t>权限类型：0-&gt;目录；1-&gt;菜单；2-&gt;按钮（接口绑定权限）</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>组织机构表/RbacGroup</t>
+  </si>
+  <si>
+    <t>groupPid</t>
+  </si>
+  <si>
+    <t>父id</t>
+  </si>
+  <si>
+    <t>groupCode</t>
+  </si>
+  <si>
+    <t>组code</t>
+  </si>
+  <si>
+    <t>组织架构名</t>
+  </si>
+  <si>
+    <t>groupIcon</t>
+  </si>
+  <si>
+    <t>组织架构ICON</t>
+  </si>
+  <si>
+    <t>岗位表/RbacPost</t>
+  </si>
+  <si>
+    <t>postPid</t>
+  </si>
+  <si>
+    <t>岗位名</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>岗位code</t>
+  </si>
+  <si>
+    <t>postIcon</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>薪资</t>
+  </si>
+  <si>
+    <t>角色菜单表/RbacRoleMenu</t>
+  </si>
+  <si>
+    <t>menuId</t>
+  </si>
+  <si>
+    <t>菜单ID</t>
+  </si>
+  <si>
+    <t>角色资源表/RbacRoleResource</t>
+  </si>
+  <si>
+    <t>resourceId</t>
+  </si>
+  <si>
+    <t>资源ID</t>
+  </si>
+  <si>
+    <t>角色权限表/RbacRolePermission</t>
+  </si>
+  <si>
+    <t>permissionId</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>角色组织或机构表/RbacRoleGroup</t>
+  </si>
+  <si>
+    <t>组织ID</t>
+  </si>
+  <si>
+    <t>产品分类/ProductCategory</t>
+  </si>
+  <si>
+    <t>父节点</t>
+  </si>
+  <si>
+    <t>类目图标</t>
+  </si>
+  <si>
+    <t>类目名</t>
+  </si>
+  <si>
+    <t>categoryCode</t>
+  </si>
+  <si>
+    <t>类目码</t>
+  </si>
+  <si>
+    <t>categoryTyp</t>
+  </si>
+  <si>
+    <t>类目类型</t>
+  </si>
+  <si>
+    <t>product_count</t>
+  </si>
+  <si>
+    <t>产品数量</t>
+  </si>
+  <si>
+    <t>nav_status</t>
+  </si>
+  <si>
+    <t>是否显示在导航栏：0-&gt;不显示；1-&gt;显示</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>分类级别：0-&gt;1级；1-&gt;2级</t>
   </si>
   <si>
     <t>descr</t>
-  </si>
-  <si>
-    <t>角色描述</t>
-  </si>
-  <si>
-    <t>授权码/RbacOauthcode</t>
-  </si>
-  <si>
-    <t>用户名/RbacUsername</t>
-  </si>
-  <si>
-    <t>用户验证/RbacVerification</t>
-  </si>
-  <si>
-    <t>资源类目表/RbacCategory</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>资源类目名</t>
-  </si>
-  <si>
-    <t>sorted</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>资源表/RbacResource</t>
-  </si>
-  <si>
-    <t>categoryId</t>
-  </si>
-  <si>
-    <t>类目id</t>
-  </si>
-  <si>
-    <t>resourceName</t>
-  </si>
-  <si>
-    <t>资源名</t>
-  </si>
-  <si>
-    <t>resourceCode</t>
-  </si>
-  <si>
-    <t>资源码</t>
-  </si>
-  <si>
-    <t>resourceTyp</t>
-  </si>
-  <si>
-    <t>类型:1目录、2菜单、3按钮、4链接</t>
-  </si>
-  <si>
-    <t>resourceVal</t>
-  </si>
-  <si>
-    <t>资源值</t>
-  </si>
-  <si>
-    <t>resourcePath</t>
-  </si>
-  <si>
-    <t>资源路径</t>
-  </si>
-  <si>
-    <t>resourceIcon</t>
-  </si>
-  <si>
-    <t>资源图标</t>
-  </si>
-  <si>
-    <t>resourceDescr</t>
-  </si>
-  <si>
-    <t>资源描述</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>是否隐藏</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>层级</t>
-  </si>
-  <si>
-    <t>权限表/RbacMenu</t>
-  </si>
-  <si>
-    <t>menuCode</t>
-  </si>
-  <si>
-    <t>英文码</t>
-  </si>
-  <si>
-    <t>menuName</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>menuVal</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>isFrame</t>
-  </si>
-  <si>
-    <t>是否iframe</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>权限表/RbacPermission</t>
-  </si>
-  <si>
-    <t>permissionCode</t>
-  </si>
-  <si>
-    <t>权限码query/creat/update/delete</t>
-  </si>
-  <si>
-    <t>permissionName</t>
-  </si>
-  <si>
-    <t>权限名称</t>
-  </si>
-  <si>
-    <t>permissionVal</t>
-  </si>
-  <si>
-    <t>权限值</t>
-  </si>
-  <si>
-    <t>permissionUri</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>permissionTyp</t>
-  </si>
-  <si>
-    <t>权限类型：0-&gt;目录；1-&gt;菜单；2-&gt;按钮（接口绑定权限）</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>组织机构表/RbacGroup</t>
-  </si>
-  <si>
-    <t>groupPid</t>
-  </si>
-  <si>
-    <t>父id</t>
-  </si>
-  <si>
-    <t>groupCode</t>
-  </si>
-  <si>
-    <t>组code</t>
-  </si>
-  <si>
-    <t>组织架构名</t>
-  </si>
-  <si>
-    <t>groupIcon</t>
-  </si>
-  <si>
-    <t>组织架构ICON</t>
-  </si>
-  <si>
-    <t>岗位表/RbacPost</t>
-  </si>
-  <si>
-    <t>postPid</t>
-  </si>
-  <si>
-    <t>岗位名</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>岗位code</t>
-  </si>
-  <si>
-    <t>postIcon</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>薪资</t>
-  </si>
-  <si>
-    <t>角色菜单表/RbacRoleMenu</t>
-  </si>
-  <si>
-    <t>menuId</t>
-  </si>
-  <si>
-    <t>菜单ID</t>
-  </si>
-  <si>
-    <t>角色资源表/RbacRoleResource</t>
-  </si>
-  <si>
-    <t>resourceId</t>
-  </si>
-  <si>
-    <t>资源ID</t>
-  </si>
-  <si>
-    <t>角色权限表/RbacRolePermission</t>
-  </si>
-  <si>
-    <t>permissionId</t>
-  </si>
-  <si>
-    <t>权限ID</t>
-  </si>
-  <si>
-    <t>角色组织或机构表/RbacRoleGroup</t>
-  </si>
-  <si>
-    <t>组织ID</t>
-  </si>
-  <si>
-    <t>产品分类/ProductCategory</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>类目图标</t>
-  </si>
-  <si>
-    <t>类目名</t>
-  </si>
-  <si>
-    <t>categoryCode</t>
-  </si>
-  <si>
-    <t>类目码</t>
-  </si>
-  <si>
-    <t>categoryTyp</t>
-  </si>
-  <si>
-    <t>类目类型</t>
-  </si>
-  <si>
-    <t>product_count</t>
-  </si>
-  <si>
-    <t>产品数量</t>
-  </si>
-  <si>
-    <t>nav_status</t>
-  </si>
-  <si>
-    <t>是否显示在导航栏：0-&gt;不显示；1-&gt;显示</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>关键字</t>
-  </si>
-  <si>
-    <t>分类级别：0-&gt;1级；1-&gt;2级</t>
   </si>
   <si>
     <t>描述</t>
@@ -1308,8 +1305,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1343,75 +1340,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1426,6 +1354,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1434,7 +1377,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1448,9 +1430,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1464,23 +1467,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,7 +1498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1534,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,37 +1666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,97 +1678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,35 +1718,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1765,26 +1759,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,17 +1781,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,148 +1819,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,10 +2327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A60"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
@@ -2425,12 +2422,8 @@
         <v>14</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
         <v>20</v>
@@ -2445,20 +2438,12 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="5"/>
       <c r="J4" t="s">
         <v>23</v>
@@ -2470,243 +2455,208 @@
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
       <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
+        <v>22</v>
+      </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
+        <v>22</v>
+      </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
+        <v>22</v>
+      </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
+        <v>22</v>
+      </c>
       <c r="J15" t="s">
         <v>50</v>
       </c>
@@ -2717,16 +2667,11 @@
         <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
       <c r="J16" t="s">
         <v>52</v>
       </c>
@@ -2737,16 +2682,11 @@
         <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
+        <v>26</v>
+      </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
@@ -2760,62 +2700,53 @@
         <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
       <c r="J18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="H20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2827,92 +2758,82 @@
         <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
+      <c r="B23"/>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4"/>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
+      <c r="B24"/>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
+      <c r="B25"/>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4"/>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
+      <c r="B26"/>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
+      <c r="B27"/>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
@@ -2920,182 +2841,180 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28"/>
       <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1">
-        <v>11</v>
-      </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
         <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s">
-        <v>95</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -3104,13 +3023,13 @@
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -3119,60 +3038,60 @@
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
         <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="4"/>
-      <c r="B44" t="s">
-        <v>104</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -3181,180 +3100,194 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="J46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="4"/>
-      <c r="B47" t="s">
-        <v>110</v>
-      </c>
       <c r="J47" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="J49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="4"/>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="J53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J55" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="J57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4"/>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
@@ -3392,7 +3325,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
@@ -3441,91 +3374,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:10">
+    <row r="2" customFormat="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
-      <c r="J2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="5"/>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3565,97 +3477,211 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4"/>
-      <c r="B11"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4"/>
-      <c r="B12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
       <c r="A15" s="4"/>
-      <c r="B15"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:9">
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
       <c r="A16" s="4"/>
-      <c r="B16"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:9">
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17" s="4"/>
-      <c r="B17"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -3669,19 +3695,19 @@
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -3689,19 +3715,19 @@
       <c r="H19" s="7"/>
       <c r="I19" s="5"/>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -3709,15 +3735,15 @@
       <c r="H20" s="7"/>
       <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -3731,19 +3757,19 @@
       <c r="H21" s="7"/>
       <c r="I21" s="5"/>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -3751,19 +3777,19 @@
       <c r="H22" s="7"/>
       <c r="I22" s="5"/>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -3771,19 +3797,19 @@
       <c r="H23" s="7"/>
       <c r="I23" s="5"/>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -3791,19 +3817,19 @@
       <c r="H24" s="7"/>
       <c r="I24" s="5"/>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -3811,19 +3837,19 @@
       <c r="H25" s="7"/>
       <c r="I25" s="5"/>
       <c r="J25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -3831,19 +3857,19 @@
       <c r="H26" s="7"/>
       <c r="I26" s="5"/>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -3851,19 +3877,19 @@
       <c r="H27" s="7"/>
       <c r="I27" s="5"/>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3871,19 +3897,19 @@
       <c r="H28" s="7"/>
       <c r="I28" s="5"/>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -3891,19 +3917,19 @@
       <c r="H29" s="7"/>
       <c r="I29" s="5"/>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3911,15 +3937,15 @@
       <c r="H30" s="7"/>
       <c r="I30" s="5"/>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
@@ -3933,212 +3959,212 @@
       <c r="H31" s="7"/>
       <c r="I31" s="5"/>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -4152,19 +4178,19 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4172,19 +4198,19 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4192,19 +4218,19 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4212,19 +4238,19 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4232,15 +4258,15 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -4254,19 +4280,19 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:10">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4274,19 +4300,19 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:10">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -4294,19 +4320,19 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:10">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -4314,19 +4340,19 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:10">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4334,15 +4360,15 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -4356,13 +4382,13 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:10">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -4376,15 +4402,15 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -4398,13 +4424,13 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -4413,15 +4439,15 @@
         <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -4430,13 +4456,13 @@
         <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -4445,15 +4471,15 @@
         <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -4462,13 +4488,13 @@
         <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4"/>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -4477,7 +4503,7 @@
         <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4584,16 +4610,16 @@
     </row>
     <row r="2" ht="14.4" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -4607,19 +4633,19 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:10">
       <c r="A3" s="13"/>
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -4633,19 +4659,19 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:10">
       <c r="A4" s="13"/>
       <c r="B4" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -4659,19 +4685,19 @@
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:10">
       <c r="A5" s="13"/>
       <c r="B5" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -4685,19 +4711,19 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:10">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
@@ -4711,19 +4737,19 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="14.4" spans="1:10">
       <c r="A7" s="13"/>
       <c r="B7" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -4737,19 +4763,19 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" ht="14.4" spans="1:10">
       <c r="A8" s="13"/>
       <c r="B8" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -4763,19 +4789,19 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" ht="14.4" spans="1:10">
       <c r="A9" s="13"/>
       <c r="B9" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -4789,19 +4815,19 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" ht="14.4" spans="1:10">
       <c r="A10" s="13"/>
       <c r="B10" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -4815,19 +4841,19 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" ht="14.4" spans="1:10">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -4841,19 +4867,19 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="14.4" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -4867,19 +4893,19 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" ht="14.4" spans="1:10">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -4893,19 +4919,19 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" ht="14.4" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -4919,21 +4945,21 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" ht="14.4" spans="1:10">
       <c r="A15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -4947,19 +4973,19 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" ht="14.4" spans="1:10">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -4973,19 +4999,19 @@
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" ht="14.4" spans="1:10">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -4999,19 +5025,19 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" ht="14.4" spans="1:10">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -5025,19 +5051,19 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" ht="14.4" spans="1:10">
       <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -5051,19 +5077,19 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" ht="14.4" spans="1:10">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -5077,19 +5103,19 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" ht="14.4" spans="1:10">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -5103,19 +5129,19 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" ht="14.4" spans="1:10">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -5129,19 +5155,19 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" ht="14.4" spans="1:10">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -5155,19 +5181,19 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" ht="14.4" spans="1:10">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -5181,19 +5207,19 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" ht="14.4" spans="1:10">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>14</v>
@@ -5207,21 +5233,21 @@
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" ht="14.4" spans="1:10">
       <c r="A26" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>14</v>
@@ -5235,19 +5261,19 @@
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" ht="14.4" spans="1:10">
       <c r="A27" s="13"/>
       <c r="B27" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>14</v>
@@ -5261,19 +5287,19 @@
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" ht="14.4" spans="1:10">
       <c r="A28" s="13"/>
       <c r="B28" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>14</v>
@@ -5287,19 +5313,19 @@
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" ht="14.4" spans="1:10">
       <c r="A29" s="13"/>
       <c r="B29" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>14</v>
@@ -5313,21 +5339,21 @@
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="14.4" spans="1:10">
       <c r="A30" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>14</v>
@@ -5341,19 +5367,19 @@
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" ht="14.4" spans="1:10">
       <c r="A31" s="13"/>
       <c r="B31" s="12" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>14</v>
@@ -5367,19 +5393,19 @@
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" ht="14.4" spans="1:10">
       <c r="A32" s="13"/>
       <c r="B32" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>14</v>
@@ -5393,19 +5419,19 @@
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" ht="14.4" spans="1:10">
       <c r="A33" s="13"/>
       <c r="B33" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>14</v>
@@ -5419,21 +5445,21 @@
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" ht="14.4" spans="1:10">
       <c r="A34" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>269</v>
-      </c>
       <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>14</v>
@@ -5447,19 +5473,19 @@
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" ht="14.4" spans="1:10">
       <c r="A35" s="13"/>
       <c r="B35" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>14</v>
@@ -5473,19 +5499,19 @@
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" ht="14.4" spans="1:10">
       <c r="A36" s="13"/>
       <c r="B36" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>14</v>
@@ -5499,19 +5525,19 @@
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" ht="14.4" spans="1:10">
       <c r="A37" s="13"/>
       <c r="B37" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>14</v>
@@ -5525,21 +5551,21 @@
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" ht="14.4" spans="1:10">
       <c r="A38" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>14</v>
@@ -5553,19 +5579,19 @@
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" ht="14.4" spans="1:10">
       <c r="A39" s="13"/>
       <c r="B39" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>14</v>
@@ -5579,19 +5605,19 @@
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" ht="14.4" spans="1:10">
       <c r="A40" s="13"/>
       <c r="B40" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>14</v>
@@ -5605,19 +5631,19 @@
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" ht="14.4" spans="1:10">
       <c r="A41" s="13"/>
       <c r="B41" s="12" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>14</v>
@@ -5631,21 +5657,21 @@
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" ht="14.4" spans="1:10">
       <c r="A42" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>14</v>
@@ -5659,19 +5685,19 @@
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" ht="14.4" spans="1:10">
       <c r="A43" s="13"/>
       <c r="B43" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>14</v>
@@ -5685,19 +5711,19 @@
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" ht="14.4" spans="1:10">
       <c r="A44" s="13"/>
       <c r="B44" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>14</v>
@@ -5711,19 +5737,19 @@
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" ht="14.4" spans="1:10">
       <c r="A45" s="13"/>
       <c r="B45" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>14</v>
@@ -5737,19 +5763,19 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" ht="14.4" spans="1:10">
       <c r="A46" s="13"/>
       <c r="B46" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>14</v>
@@ -5763,19 +5789,19 @@
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="14.4" spans="1:10">
       <c r="A47" s="13"/>
       <c r="B47" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>14</v>
@@ -5789,19 +5815,19 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" ht="14.4" spans="1:10">
       <c r="A48" s="13"/>
       <c r="B48" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>14</v>
@@ -5815,19 +5841,19 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" ht="14.4" spans="1:10">
       <c r="A49" s="13"/>
       <c r="B49" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>14</v>
@@ -5841,19 +5867,19 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" ht="14.4" spans="1:10">
       <c r="A50" s="13"/>
       <c r="B50" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>14</v>
@@ -5867,19 +5893,19 @@
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" ht="14.4" spans="1:10">
       <c r="A51" s="13"/>
       <c r="B51" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>14</v>
@@ -5893,21 +5919,21 @@
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" ht="14.4" spans="1:10">
       <c r="A52" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>14</v>
@@ -5921,19 +5947,19 @@
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" ht="14.4" spans="1:10">
       <c r="A53" s="13"/>
       <c r="B53" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
@@ -5946,21 +5972,21 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" ht="14.4" spans="1:10">
       <c r="A54" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>14</v>
@@ -5974,19 +6000,19 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" ht="14.4" spans="1:10">
       <c r="A55" s="13"/>
       <c r="B55" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>14</v>
@@ -6000,19 +6026,19 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" ht="14.4" spans="1:10">
       <c r="A56" s="13"/>
       <c r="B56" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>14</v>
@@ -6026,19 +6052,19 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" ht="14.4" spans="1:10">
       <c r="A57" s="13"/>
       <c r="B57" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>14</v>
@@ -6052,19 +6078,19 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" ht="14.4" spans="1:10">
       <c r="A58" s="13"/>
       <c r="B58" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>14</v>
@@ -6078,19 +6104,19 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" ht="14.4" spans="1:10">
       <c r="A59" s="13"/>
       <c r="B59" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>14</v>
@@ -6104,19 +6130,19 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" ht="14.4" spans="1:10">
       <c r="A60" s="13"/>
       <c r="B60" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>14</v>
@@ -6130,19 +6156,19 @@
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" ht="14.4" spans="1:10">
       <c r="A61" s="13"/>
       <c r="B61" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>14</v>
@@ -6156,19 +6182,19 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" ht="14.4" spans="1:10">
       <c r="A62" s="13"/>
       <c r="B62" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>14</v>
@@ -6182,19 +6208,19 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" ht="14.4" spans="1:10">
       <c r="A63" s="13"/>
       <c r="B63" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>14</v>
@@ -6208,19 +6234,19 @@
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" ht="14.4" spans="1:10">
       <c r="A64" s="13"/>
       <c r="B64" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>14</v>
@@ -6234,19 +6260,19 @@
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" ht="14.4" spans="1:10">
       <c r="A65" s="13"/>
       <c r="B65" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>14</v>
@@ -6260,19 +6286,19 @@
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" ht="14.4" spans="1:10">
       <c r="A66" s="13"/>
       <c r="B66" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>14</v>
@@ -6286,19 +6312,19 @@
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" ht="14.4" spans="1:10">
       <c r="A67" s="13"/>
       <c r="B67" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>14</v>
@@ -6312,19 +6338,19 @@
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" ht="14.4" spans="1:10">
       <c r="A68" s="13"/>
       <c r="B68" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>14</v>
@@ -6338,19 +6364,19 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" ht="14.4" spans="1:10">
       <c r="A69" s="13"/>
       <c r="B69" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>14</v>
@@ -6364,19 +6390,19 @@
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" ht="14.4" spans="1:10">
       <c r="A70" s="13"/>
       <c r="B70" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>14</v>
@@ -6390,19 +6416,19 @@
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" ht="14.4" spans="1:10">
       <c r="A71" s="13"/>
       <c r="B71" s="9" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>14</v>
@@ -6416,19 +6442,19 @@
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" ht="14.4" spans="1:10">
       <c r="A72" s="13"/>
       <c r="B72" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>14</v>
@@ -6442,19 +6468,19 @@
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" ht="14.4" spans="1:10">
       <c r="A73" s="13"/>
       <c r="B73" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>14</v>
@@ -6468,19 +6494,19 @@
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" ht="14.4" spans="1:10">
       <c r="A74" s="13"/>
       <c r="B74" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>14</v>
@@ -6494,19 +6520,19 @@
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" ht="14.4" spans="1:10">
       <c r="A75" s="13"/>
       <c r="B75" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>14</v>
@@ -6520,19 +6546,19 @@
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" ht="14.4" spans="1:10">
       <c r="A76" s="13"/>
       <c r="B76" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>14</v>
@@ -6546,19 +6572,19 @@
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" ht="14.4" spans="1:10">
       <c r="A77" s="13"/>
       <c r="B77" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>14</v>
@@ -6572,19 +6598,19 @@
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" ht="14.4" spans="1:10">
       <c r="A78" s="13"/>
       <c r="B78" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>14</v>
@@ -6598,19 +6624,19 @@
       </c>
       <c r="I78" s="14"/>
       <c r="J78" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" ht="14.4" spans="1:10">
       <c r="A79" s="13"/>
       <c r="B79" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>14</v>
@@ -6624,19 +6650,19 @@
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" ht="14.4" spans="1:10">
       <c r="A80" s="13"/>
       <c r="B80" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>14</v>
@@ -6650,19 +6676,19 @@
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" ht="14.4" spans="1:10">
       <c r="A81" s="13"/>
       <c r="B81" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>14</v>
@@ -6676,19 +6702,19 @@
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" ht="14.4" spans="1:10">
       <c r="A82" s="13"/>
       <c r="B82" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>14</v>
@@ -6702,19 +6728,19 @@
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" ht="14.4" spans="1:10">
       <c r="A83" s="13"/>
       <c r="B83" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>14</v>
@@ -6728,19 +6754,19 @@
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" ht="14.4" spans="1:10">
       <c r="A84" s="13"/>
       <c r="B84" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>14</v>
@@ -6754,19 +6780,19 @@
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" ht="14.4" spans="1:10">
       <c r="A85" s="13"/>
       <c r="B85" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>14</v>
@@ -6780,19 +6806,19 @@
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" ht="14.4" spans="1:10">
       <c r="A86" s="13"/>
       <c r="B86" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>14</v>
@@ -6806,19 +6832,19 @@
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" ht="14.4" spans="1:10">
       <c r="A87" s="13"/>
       <c r="B87" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>14</v>
@@ -6832,19 +6858,19 @@
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" ht="14.4" spans="1:10">
       <c r="A88" s="13"/>
       <c r="B88" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>14</v>
@@ -6858,19 +6884,19 @@
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" ht="14.4" spans="1:10">
       <c r="A89" s="13"/>
       <c r="B89" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>14</v>
@@ -6884,19 +6910,19 @@
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" ht="14.4" spans="1:10">
       <c r="A90" s="13"/>
       <c r="B90" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>14</v>
@@ -6910,19 +6936,19 @@
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" ht="14.4" spans="1:10">
       <c r="A91" s="13"/>
       <c r="B91" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>14</v>
@@ -6936,19 +6962,19 @@
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" ht="14.4" spans="1:10">
       <c r="A92" s="13"/>
       <c r="B92" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>14</v>
@@ -6962,19 +6988,19 @@
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" ht="14.4" spans="1:10">
       <c r="A93" s="13"/>
       <c r="B93" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>14</v>
@@ -6988,19 +7014,19 @@
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" ht="14.4" spans="1:10">
       <c r="A94" s="13"/>
       <c r="B94" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>14</v>
@@ -7014,7 +7040,7 @@
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7116,10 +7142,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
         <v>350</v>
-      </c>
-      <c r="B2" t="s">
-        <v>351</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7129,13 +7155,13 @@
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -7145,26 +7171,26 @@
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="J4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -7174,13 +7200,13 @@
       <c r="H5" s="7"/>
       <c r="I5" s="5"/>
       <c r="J5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -7190,13 +7216,13 @@
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -7206,13 +7232,13 @@
       <c r="H7" s="7"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7222,13 +7248,13 @@
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -7238,15 +7264,15 @@
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -7256,13 +7282,13 @@
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -7272,13 +7298,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
       <c r="J11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -7288,7 +7314,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7470,7 +7496,7 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -8129,10 +8155,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="s">
         <v>372</v>
-      </c>
-      <c r="B2" t="s">
-        <v>373</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -8142,13 +8168,13 @@
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -8158,13 +8184,13 @@
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -8174,7 +8200,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8190,13 +8216,13 @@
       <c r="H5" s="7"/>
       <c r="I5" s="5"/>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8206,13 +8232,13 @@
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8222,13 +8248,13 @@
       <c r="H7" s="7"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8238,13 +8264,13 @@
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8254,13 +8280,13 @@
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8270,13 +8296,13 @@
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8286,13 +8312,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
       <c r="J11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -8302,13 +8328,13 @@
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -8318,13 +8344,13 @@
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -8334,7 +8360,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8886,10 +8912,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -8899,13 +8925,13 @@
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -8915,13 +8941,13 @@
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -8943,10 +8969,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8956,13 +8982,13 @@
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8972,13 +8998,13 @@
       <c r="H7" s="7"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8988,13 +9014,13 @@
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -9004,13 +9030,13 @@
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:10">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -9020,13 +9046,13 @@
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.4" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9036,13 +9062,13 @@
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -9052,13 +9078,13 @@
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -9068,13 +9094,13 @@
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -9084,13 +9110,13 @@
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -9100,13 +9126,13 @@
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -9116,13 +9142,13 @@
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -9132,13 +9158,13 @@
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9148,13 +9174,13 @@
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -9164,13 +9190,13 @@
       <c r="H19" s="7"/>
       <c r="I19" s="5"/>
       <c r="J19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -9180,13 +9206,13 @@
       <c r="H20" s="7"/>
       <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -9199,7 +9225,7 @@
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -9211,7 +9237,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>

--- a/arch-framework/src/test/resources/uni-life.xlsx
+++ b/arch-framework/src/test/resources/uni-life.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30800" windowHeight="15900"/>
+    <workbookView windowWidth="23317" windowHeight="9930" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Market" sheetId="8" r:id="rId7"/>
     <sheet name="Pay" sheetId="7" r:id="rId8"/>
     <sheet name="Cms" sheetId="13" r:id="rId9"/>
+    <sheet name="Im" sheetId="18" r:id="rId10"/>
+    <sheet name="Config" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="426">
   <si>
     <t>表名/Table</t>
   </si>
@@ -409,6 +411,9 @@
   </si>
   <si>
     <t>用户标示/RbacIdentifier</t>
+  </si>
+  <si>
+    <t>用户名ID</t>
   </si>
   <si>
     <t>identifier</t>
@@ -1304,10 +1309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1339,76 +1344,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,37 +1361,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1475,11 +1399,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1498,7 +1503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,7 +1515,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,163 +1677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,17 +1723,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,11 +1767,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1780,197 +1820,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1979,10 +1984,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2001,55 +2006,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2325,29 +2330,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="30.4821428571429" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="98.9642857142857" customWidth="1"/>
+    <col min="1" max="1" width="30.4867256637168" customWidth="1"/>
+    <col min="2" max="2" width="13.716814159292" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4247787610619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.070796460177" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" style="1" customWidth="1"/>
+    <col min="10" max="10" width="98.9646017699115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2392,14 +2397,14 @@
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5"/>
@@ -2418,12 +2423,12 @@
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
         <v>20</v>
@@ -2440,10 +2445,10 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" t="s">
         <v>23</v>
@@ -2460,10 +2465,10 @@
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" t="s">
         <v>27</v>
@@ -2480,10 +2485,10 @@
       <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
         <v>30</v>
@@ -2500,10 +2505,10 @@
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
         <v>33</v>
@@ -2520,10 +2525,10 @@
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
         <v>35</v>
@@ -2540,10 +2545,10 @@
       <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
         <v>37</v>
@@ -2560,14 +2565,14 @@
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
         <v>41</v>
@@ -2586,14 +2591,14 @@
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="5"/>
@@ -2734,14 +2739,14 @@
       <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="5"/>
@@ -2781,7 +2786,6 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4"/>
-      <c r="B23"/>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +2798,6 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4"/>
-      <c r="B24"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2807,7 +2810,6 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4"/>
-      <c r="B25"/>
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
@@ -2820,7 +2822,6 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4"/>
-      <c r="B26"/>
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2833,7 +2834,6 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
-      <c r="B27"/>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
@@ -2846,7 +2846,6 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4"/>
-      <c r="B28"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -3319,30 +3318,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="33.2678571428571" customWidth="1"/>
-    <col min="2" max="2" width="15.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="13.7589285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="56.75" customWidth="1"/>
+    <col min="1" max="1" width="33.2654867256637" customWidth="1"/>
+    <col min="2" max="2" width="15.0973451327434" customWidth="1"/>
+    <col min="3" max="3" width="13.7610619469027" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4247787610619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.716814159292" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" style="1" customWidth="1"/>
+    <col min="10" max="10" width="56.7522123893805" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3384,45 +3415,42 @@
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="4"/>
-      <c r="B3"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="4"/>
-      <c r="B4"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="4"/>
-      <c r="B5"/>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
@@ -3441,30 +3469,30 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="1" spans="1:9">
@@ -3490,14 +3518,14 @@
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="5"/>
@@ -3516,14 +3544,14 @@
       <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="5"/>
@@ -3542,16 +3570,16 @@
       <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="5"/>
@@ -3587,25 +3615,25 @@
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -3613,25 +3641,25 @@
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
@@ -3639,25 +3667,25 @@
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>18</v>
@@ -3665,20 +3693,20 @@
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -3689,10 +3717,10 @@
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
         <v>64</v>
@@ -3701,7 +3729,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>18</v>
@@ -3709,19 +3737,19 @@
       <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>25</v>
@@ -3729,21 +3757,21 @@
       <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -3751,19 +3779,19 @@
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
@@ -3771,19 +3799,19 @@
       <c r="D22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
@@ -3791,19 +3819,19 @@
       <c r="D23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>18</v>
@@ -3811,19 +3839,19 @@
       <c r="D24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
@@ -3831,19 +3859,19 @@
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
@@ -3851,19 +3879,19 @@
       <c r="D26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="5"/>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
@@ -3871,19 +3899,19 @@
       <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="5"/>
       <c r="J27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>18</v>
@@ -3891,19 +3919,19 @@
       <c r="D28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="5"/>
       <c r="J28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>25</v>
@@ -3911,19 +3939,19 @@
       <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="5"/>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>25</v>
@@ -3931,18 +3959,18 @@
       <c r="D30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="5"/>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -3953,10 +3981,10 @@
       <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="5"/>
       <c r="J31" t="s">
         <v>64</v>
@@ -3965,7 +3993,7 @@
     <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>18</v>
@@ -3974,13 +4002,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>18</v>
@@ -3989,13 +4017,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>18</v>
@@ -4004,13 +4032,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>25</v>
@@ -4019,13 +4047,13 @@
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>25</v>
@@ -4034,13 +4062,13 @@
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>25</v>
@@ -4049,13 +4077,13 @@
         <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>18</v>
@@ -4064,15 +4092,15 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>18</v>
@@ -4081,13 +4109,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>18</v>
@@ -4096,13 +4124,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>18</v>
@@ -4111,13 +4139,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -4126,13 +4154,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
@@ -4141,30 +4169,30 @@
         <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -4178,13 +4206,13 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>18</v>
@@ -4198,7 +4226,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
@@ -4218,13 +4246,13 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>18</v>
@@ -4238,13 +4266,13 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>25</v>
@@ -4258,15 +4286,15 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -4280,7 +4308,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:10">
@@ -4300,13 +4328,13 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:10">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -4320,13 +4348,13 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:10">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
@@ -4340,13 +4368,13 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:10">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>18</v>
@@ -4360,12 +4388,12 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
         <v>92</v>
@@ -4388,7 +4416,7 @@
     <row r="56" customFormat="1" spans="1:10">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -4402,12 +4430,12 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
         <v>92</v>
@@ -4430,7 +4458,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -4439,12 +4467,12 @@
         <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
         <v>92</v>
@@ -4462,7 +4490,7 @@
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -4471,12 +4499,12 @@
         <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
         <v>92</v>
@@ -4503,7 +4531,7 @@
         <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4554,29 +4582,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="15.0714285714286" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="61.8660714285714" customWidth="1"/>
+    <col min="1" max="1" width="33.1238938053097" customWidth="1"/>
+    <col min="2" max="2" width="23.4247787610619" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" customWidth="1"/>
+    <col min="5" max="5" width="17.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="15.070796460177" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" customWidth="1"/>
+    <col min="10" max="10" width="61.8672566371681" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4608,9 +4636,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:10">
+    <row r="2" ht="15" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>63</v>
@@ -4621,25 +4649,25 @@
       <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:10">
       <c r="A3" s="13"/>
       <c r="B3" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
@@ -4647,25 +4675,25 @@
       <c r="D3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" spans="1:10">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:10">
       <c r="A4" s="13"/>
       <c r="B4" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -4673,25 +4701,25 @@
       <c r="D4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" ht="14.4" spans="1:10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:10">
       <c r="A5" s="13"/>
       <c r="B5" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -4699,25 +4727,25 @@
       <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" spans="1:10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:10">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -4725,25 +4753,25 @@
       <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:10">
       <c r="A7" s="13"/>
       <c r="B7" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -4751,25 +4779,25 @@
       <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" spans="1:10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:10">
       <c r="A8" s="13"/>
       <c r="B8" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -4777,25 +4805,25 @@
       <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" spans="1:10">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:10">
       <c r="A9" s="13"/>
       <c r="B9" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -4803,25 +4831,25 @@
       <c r="D9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" spans="1:10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:10">
       <c r="A10" s="13"/>
       <c r="B10" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
@@ -4829,25 +4857,25 @@
       <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" spans="1:10">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:10">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
@@ -4855,25 +4883,25 @@
       <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" spans="1:10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
@@ -4881,25 +4909,25 @@
       <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:10">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -4907,25 +4935,25 @@
       <c r="D13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" ht="14.4" spans="1:10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -4933,27 +4961,27 @@
       <c r="D14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" spans="1:10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:10">
       <c r="A15" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -4961,25 +4989,25 @@
       <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" spans="1:10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:10">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
@@ -4987,25 +5015,25 @@
       <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" spans="1:10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:10">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>25</v>
@@ -5013,25 +5041,25 @@
       <c r="D17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" ht="14.4" spans="1:10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:10">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>25</v>
@@ -5039,25 +5067,25 @@
       <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" ht="14.4" spans="1:10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:10">
       <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -5065,25 +5093,25 @@
       <c r="D19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" ht="14.4" spans="1:10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:10">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>18</v>
@@ -5091,25 +5119,25 @@
       <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" ht="14.4" spans="1:10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:10">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
@@ -5117,25 +5145,25 @@
       <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" ht="14.4" spans="1:10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:10">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
@@ -5143,25 +5171,25 @@
       <c r="D22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" ht="14.4" spans="1:10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:10">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>25</v>
@@ -5169,25 +5197,25 @@
       <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" ht="14.4" spans="1:10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:10">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>25</v>
@@ -5195,25 +5223,25 @@
       <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" ht="14.4" spans="1:10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:10">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>25</v>
@@ -5221,27 +5249,27 @@
       <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" ht="14.4" spans="1:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:10">
       <c r="A26" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
@@ -5249,25 +5277,25 @@
       <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" ht="14.4" spans="1:10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:10">
       <c r="A27" s="13"/>
       <c r="B27" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
@@ -5275,25 +5303,25 @@
       <c r="D27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" ht="14.4" spans="1:10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:10">
       <c r="A28" s="13"/>
       <c r="B28" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>18</v>
@@ -5301,25 +5329,25 @@
       <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" ht="14.4" spans="1:10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:10">
       <c r="A29" s="13"/>
       <c r="B29" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
@@ -5327,14 +5355,14 @@
       <c r="D29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="12"/>
@@ -5342,12 +5370,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:10">
+    <row r="30" ht="15" spans="1:10">
       <c r="A30" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
@@ -5355,25 +5383,25 @@
       <c r="D30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" ht="14.4" spans="1:10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:10">
       <c r="A31" s="13"/>
       <c r="B31" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -5381,25 +5409,25 @@
       <c r="D31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" ht="14.4" spans="1:10">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:10">
       <c r="A32" s="13"/>
       <c r="B32" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>25</v>
@@ -5407,25 +5435,25 @@
       <c r="D32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" ht="14.4" spans="1:10">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:10">
       <c r="A33" s="13"/>
       <c r="B33" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -5433,27 +5461,27 @@
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" ht="14.4" spans="1:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:10">
       <c r="A34" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>18</v>
@@ -5461,25 +5489,25 @@
       <c r="D34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" ht="14.4" spans="1:10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:10">
       <c r="A35" s="13"/>
       <c r="B35" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>18</v>
@@ -5487,25 +5515,25 @@
       <c r="D35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" ht="14.4" spans="1:10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:10">
       <c r="A36" s="13"/>
       <c r="B36" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>18</v>
@@ -5513,25 +5541,25 @@
       <c r="D36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" ht="14.4" spans="1:10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:10">
       <c r="A37" s="13"/>
       <c r="B37" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>25</v>
@@ -5539,27 +5567,27 @@
       <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" ht="14.4" spans="1:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:10">
       <c r="A38" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -5567,25 +5595,25 @@
       <c r="D38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
+      <c r="E38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" ht="14.4" spans="1:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:10">
       <c r="A39" s="13"/>
       <c r="B39" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>18</v>
@@ -5593,25 +5621,25 @@
       <c r="D39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
+      <c r="E39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" ht="14.4" spans="1:10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:10">
       <c r="A40" s="13"/>
       <c r="B40" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>18</v>
@@ -5619,25 +5647,25 @@
       <c r="D40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="E40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" ht="14.4" spans="1:10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:10">
       <c r="A41" s="13"/>
       <c r="B41" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>18</v>
@@ -5645,27 +5673,27 @@
       <c r="D41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
+      <c r="E41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" ht="14.4" spans="1:10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:10">
       <c r="A42" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>18</v>
@@ -5673,25 +5701,25 @@
       <c r="D42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" ht="14.4" spans="1:10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:10">
       <c r="A43" s="13"/>
       <c r="B43" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -5699,25 +5727,25 @@
       <c r="D43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" ht="14.4" spans="1:10">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:10">
       <c r="A44" s="13"/>
       <c r="B44" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -5725,25 +5753,25 @@
       <c r="D44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="E44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" ht="14.4" spans="1:10">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:10">
       <c r="A45" s="13"/>
       <c r="B45" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -5751,25 +5779,25 @@
       <c r="D45" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
+      <c r="E45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" ht="14.4" spans="1:10">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:10">
       <c r="A46" s="13"/>
       <c r="B46" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -5777,25 +5805,25 @@
       <c r="D46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" ht="14.4" spans="1:10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:10">
       <c r="A47" s="13"/>
       <c r="B47" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -5803,25 +5831,25 @@
       <c r="D47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="E47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" ht="14.4" spans="1:10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:10">
       <c r="A48" s="13"/>
       <c r="B48" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -5829,25 +5857,25 @@
       <c r="D48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
+      <c r="E48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" ht="14.4" spans="1:10">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:10">
       <c r="A49" s="13"/>
       <c r="B49" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -5855,25 +5883,25 @@
       <c r="D49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
+      <c r="E49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="50" ht="14.4" spans="1:10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:10">
       <c r="A50" s="13"/>
       <c r="B50" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -5881,25 +5909,25 @@
       <c r="D50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" ht="14.4" spans="1:10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:10">
       <c r="A51" s="13"/>
       <c r="B51" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -5907,27 +5935,27 @@
       <c r="D51" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" ht="14.4" spans="1:10">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:10">
       <c r="A52" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -5935,25 +5963,25 @@
       <c r="D52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
+      <c r="E52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" ht="14.4" spans="1:10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:10">
       <c r="A53" s="13"/>
       <c r="B53" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
@@ -5961,26 +5989,26 @@
       <c r="D53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="s">
+      <c r="E53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" ht="14.4" spans="1:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:10">
       <c r="A54" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>18</v>
@@ -5988,25 +6016,25 @@
       <c r="D54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" ht="14.4" spans="1:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:10">
       <c r="A55" s="13"/>
       <c r="B55" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -6014,25 +6042,25 @@
       <c r="D55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7" t="s">
+      <c r="E55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" ht="14.4" spans="1:10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:10">
       <c r="A56" s="13"/>
       <c r="B56" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>18</v>
@@ -6040,25 +6068,25 @@
       <c r="D56" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7" t="s">
+      <c r="E56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" ht="14.4" spans="1:10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:10">
       <c r="A57" s="13"/>
       <c r="B57" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>25</v>
@@ -6066,25 +6094,25 @@
       <c r="D57" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
+      <c r="E57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" ht="14.4" spans="1:10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:10">
       <c r="A58" s="13"/>
       <c r="B58" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
@@ -6092,25 +6120,25 @@
       <c r="D58" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7" t="s">
+      <c r="E58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" ht="14.4" spans="1:10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:10">
       <c r="A59" s="13"/>
       <c r="B59" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>18</v>
@@ -6118,22 +6146,22 @@
       <c r="D59" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7" t="s">
+      <c r="E59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" ht="14.4" spans="1:10">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:10">
       <c r="A60" s="13"/>
       <c r="B60" s="9" t="s">
         <v>21</v>
@@ -6144,25 +6172,25 @@
       <c r="D60" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7" t="s">
+      <c r="E60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" ht="14.4" spans="1:10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:10">
       <c r="A61" s="13"/>
       <c r="B61" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>18</v>
@@ -6170,25 +6198,25 @@
       <c r="D61" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7" t="s">
+      <c r="E61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" ht="14.4" spans="1:10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:10">
       <c r="A62" s="13"/>
       <c r="B62" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>18</v>
@@ -6196,25 +6224,25 @@
       <c r="D62" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
+      <c r="E62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" ht="14.4" spans="1:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:10">
       <c r="A63" s="13"/>
       <c r="B63" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>18</v>
@@ -6222,25 +6250,25 @@
       <c r="D63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
+      <c r="E63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" ht="14.4" spans="1:10">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:10">
       <c r="A64" s="13"/>
       <c r="B64" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>18</v>
@@ -6248,25 +6276,25 @@
       <c r="D64" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7" t="s">
+      <c r="E64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" ht="14.4" spans="1:10">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:10">
       <c r="A65" s="13"/>
       <c r="B65" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>18</v>
@@ -6274,25 +6302,25 @@
       <c r="D65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
+      <c r="E65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="66" ht="14.4" spans="1:10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:10">
       <c r="A66" s="13"/>
       <c r="B66" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -6300,25 +6328,25 @@
       <c r="D66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
+      <c r="E66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" ht="14.4" spans="1:10">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:10">
       <c r="A67" s="13"/>
       <c r="B67" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>25</v>
@@ -6326,25 +6354,25 @@
       <c r="D67" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
+      <c r="E67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" ht="14.4" spans="1:10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:10">
       <c r="A68" s="13"/>
       <c r="B68" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -6352,25 +6380,25 @@
       <c r="D68" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
+      <c r="E68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" ht="14.4" spans="1:10">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:10">
       <c r="A69" s="13"/>
       <c r="B69" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>18</v>
@@ -6378,25 +6406,25 @@
       <c r="D69" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
+      <c r="E69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" ht="14.4" spans="1:10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:10">
       <c r="A70" s="13"/>
       <c r="B70" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>18</v>
@@ -6404,25 +6432,25 @@
       <c r="D70" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7" t="s">
+      <c r="E70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" ht="14.4" spans="1:10">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:10">
       <c r="A71" s="13"/>
       <c r="B71" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>18</v>
@@ -6430,25 +6458,25 @@
       <c r="D71" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7" t="s">
+      <c r="E71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" ht="14.4" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:10">
       <c r="A72" s="13"/>
       <c r="B72" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>25</v>
@@ -6456,25 +6484,25 @@
       <c r="D72" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7" t="s">
+      <c r="E72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" ht="14.4" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:10">
       <c r="A73" s="13"/>
       <c r="B73" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>25</v>
@@ -6482,25 +6510,25 @@
       <c r="D73" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7" t="s">
+      <c r="E73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" ht="14.4" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:10">
       <c r="A74" s="13"/>
       <c r="B74" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>25</v>
@@ -6508,25 +6536,25 @@
       <c r="D74" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7" t="s">
+      <c r="E74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" ht="14.4" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:10">
       <c r="A75" s="13"/>
       <c r="B75" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>18</v>
@@ -6534,25 +6562,25 @@
       <c r="D75" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
+      <c r="E75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" ht="14.4" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:10">
       <c r="A76" s="13"/>
       <c r="B76" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>18</v>
@@ -6560,25 +6588,25 @@
       <c r="D76" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
+      <c r="E76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" ht="14.4" spans="1:10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="1:10">
       <c r="A77" s="13"/>
       <c r="B77" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>18</v>
@@ -6586,25 +6614,25 @@
       <c r="D77" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7" t="s">
+      <c r="E77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:10">
       <c r="A78" s="13"/>
       <c r="B78" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
@@ -6612,25 +6640,25 @@
       <c r="D78" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7" t="s">
+      <c r="E78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I78" s="14"/>
       <c r="J78" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:10">
       <c r="A79" s="13"/>
       <c r="B79" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>18</v>
@@ -6638,25 +6666,25 @@
       <c r="D79" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7" t="s">
+      <c r="E79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:10">
       <c r="A80" s="13"/>
       <c r="B80" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
@@ -6664,25 +6692,25 @@
       <c r="D80" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7" t="s">
+      <c r="E80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:10">
       <c r="A81" s="13"/>
       <c r="B81" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>25</v>
@@ -6690,25 +6718,25 @@
       <c r="D81" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7" t="s">
+      <c r="E81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:10">
       <c r="A82" s="13"/>
       <c r="B82" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
@@ -6716,25 +6744,25 @@
       <c r="D82" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7" t="s">
+      <c r="E82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:10">
       <c r="A83" s="13"/>
       <c r="B83" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>18</v>
@@ -6742,25 +6770,25 @@
       <c r="D83" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7" t="s">
+      <c r="E83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:10">
       <c r="A84" s="13"/>
       <c r="B84" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>18</v>
@@ -6768,25 +6796,25 @@
       <c r="D84" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7" t="s">
+      <c r="E84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:10">
       <c r="A85" s="13"/>
       <c r="B85" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>18</v>
@@ -6794,25 +6822,25 @@
       <c r="D85" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7" t="s">
+      <c r="E85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:10">
       <c r="A86" s="13"/>
       <c r="B86" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>25</v>
@@ -6820,25 +6848,25 @@
       <c r="D86" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7" t="s">
+      <c r="E86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="1:10">
       <c r="A87" s="13"/>
       <c r="B87" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>12</v>
@@ -6846,25 +6874,25 @@
       <c r="D87" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
+      <c r="E87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="88" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:10">
       <c r="A88" s="13"/>
       <c r="B88" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>18</v>
@@ -6872,25 +6900,25 @@
       <c r="D88" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
+      <c r="E88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:10">
       <c r="A89" s="13"/>
       <c r="B89" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>18</v>
@@ -6898,25 +6926,25 @@
       <c r="D89" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7" t="s">
+      <c r="E89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="90" ht="14.4" spans="1:10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:10">
       <c r="A90" s="13"/>
       <c r="B90" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
@@ -6924,25 +6952,25 @@
       <c r="D90" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7" t="s">
+      <c r="E90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" ht="14.4" spans="1:10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="1:10">
       <c r="A91" s="13"/>
       <c r="B91" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>18</v>
@@ -6950,25 +6978,25 @@
       <c r="D91" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7" t="s">
+      <c r="E91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="92" ht="14.4" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:10">
       <c r="A92" s="13"/>
       <c r="B92" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -6976,25 +7004,25 @@
       <c r="D92" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
+      <c r="E92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="93" ht="14.4" spans="1:10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="1:10">
       <c r="A93" s="13"/>
       <c r="B93" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>12</v>
@@ -7002,25 +7030,25 @@
       <c r="D93" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
+      <c r="E93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" ht="14.4" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" ht="15" spans="1:10">
       <c r="A94" s="13"/>
       <c r="B94" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
@@ -7028,19 +7056,19 @@
       <c r="D94" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7" t="s">
+      <c r="E94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7086,7 +7114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -7094,21 +7122,21 @@
       <selection activeCell="A22" sqref="A22:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="28.8125" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.8214285714286" customWidth="1"/>
+    <col min="1" max="1" width="28.8141592920354" customWidth="1"/>
+    <col min="2" max="2" width="13.716814159292" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.4247787610619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.070796460177" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.8230088495575" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7142,189 +7170,189 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:4">
@@ -7492,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -7500,22 +7528,22 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="28.8125" customWidth="1"/>
-    <col min="2" max="2" width="15.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="13.7589285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8214285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.9285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8839285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.0535714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.9910714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.9375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="98.9642857142857" customWidth="1"/>
-    <col min="11" max="11" width="33.1964285714286" customWidth="1"/>
+    <col min="1" max="1" width="28.8141592920354" customWidth="1"/>
+    <col min="2" max="2" width="15.0973451327434" customWidth="1"/>
+    <col min="3" max="3" width="13.7610619469027" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8230088495575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.929203539823" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8849557522124" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.0530973451327" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9911504424779" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.9380530973451" style="1" customWidth="1"/>
+    <col min="10" max="10" width="98.9646017699115" customWidth="1"/>
+    <col min="11" max="11" width="33.2035398230088" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7551,10 +7579,10 @@
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="K2" s="8"/>
     </row>
@@ -7562,10 +7590,10 @@
       <c r="A3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="K3" s="8"/>
     </row>
@@ -7573,10 +7601,10 @@
       <c r="A4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="K4" s="8"/>
     </row>
@@ -7584,10 +7612,10 @@
       <c r="A5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="K5" s="8"/>
     </row>
@@ -7595,10 +7623,10 @@
       <c r="A6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="K6" s="8"/>
     </row>
@@ -7606,10 +7634,10 @@
       <c r="A7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="K7" s="8"/>
     </row>
@@ -7617,10 +7645,10 @@
       <c r="A8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="K8" s="8"/>
     </row>
@@ -7628,10 +7656,10 @@
       <c r="A9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="K9" s="8"/>
     </row>
@@ -7639,10 +7667,10 @@
       <c r="A10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="K10" s="8"/>
     </row>
@@ -7656,10 +7684,10 @@
       <c r="A12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="K12" s="8"/>
     </row>
@@ -7667,10 +7695,10 @@
       <c r="A13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="K13" s="8"/>
     </row>
@@ -7678,10 +7706,10 @@
       <c r="A14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="K14" s="8"/>
     </row>
@@ -7689,10 +7717,10 @@
       <c r="A15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="K15" s="8"/>
     </row>
@@ -7700,10 +7728,10 @@
       <c r="A16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="K16" s="8"/>
     </row>
@@ -7711,10 +7739,10 @@
       <c r="A17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="K17" s="8"/>
     </row>
@@ -7722,10 +7750,10 @@
       <c r="A18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="K18" s="8"/>
     </row>
@@ -7733,10 +7761,10 @@
       <c r="A19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="K19" s="8"/>
     </row>
@@ -7744,10 +7772,10 @@
       <c r="A20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="K20" s="8"/>
     </row>
@@ -7755,10 +7783,10 @@
       <c r="A21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="K21" s="8"/>
     </row>
@@ -7766,10 +7794,10 @@
       <c r="A22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="K22" s="8"/>
     </row>
@@ -7777,10 +7805,10 @@
       <c r="A23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="K23" s="8"/>
     </row>
@@ -7788,10 +7816,10 @@
       <c r="A24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
       <c r="K24" s="8"/>
     </row>
@@ -7799,10 +7827,10 @@
       <c r="A25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="K25" s="8"/>
     </row>
@@ -8099,7 +8127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J59"/>
   <sheetViews>
@@ -8107,21 +8135,21 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="30.4821428571429" customWidth="1"/>
-    <col min="2" max="2" width="15.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="15.0714285714286" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="98.9642857142857" customWidth="1"/>
+    <col min="1" max="1" width="30.4867256637168" customWidth="1"/>
+    <col min="2" max="2" width="15.0973451327434" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" customWidth="1"/>
+    <col min="5" max="5" width="17.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="15.070796460177" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" customWidth="1"/>
+    <col min="10" max="10" width="98.9646017699115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8155,20 +8183,20 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8178,19 +8206,19 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -8210,10 +8238,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" t="s">
         <v>16</v>
@@ -8222,185 +8250,185 @@
     <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9">
@@ -8856,7 +8884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
@@ -8864,21 +8892,21 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="34.7232142857143" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="98.9642857142857" customWidth="1"/>
+    <col min="1" max="1" width="34.7256637168142" customWidth="1"/>
+    <col min="2" max="2" width="13.716814159292" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.4247787610619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.070796460177" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" style="1" customWidth="1"/>
+    <col min="10" max="10" width="98.9646017699115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8912,49 +8940,49 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="1" spans="1:9">
@@ -8969,90 +8997,90 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:10">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="14.4" spans="1:10">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="15" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9062,283 +9090,283 @@
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:10">
       <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
-        <v>404</v>
+      <c r="B12" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>406</v>
+      <c r="B13" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:10">
       <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
-        <v>408</v>
+      <c r="B14" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>410</v>
+      <c r="B15" s="7" t="s">
+        <v>411</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
-        <v>412</v>
+      <c r="B16" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
       <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
-        <v>414</v>
+      <c r="B17" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
-        <v>416</v>
+      <c r="B18" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
-        <v>418</v>
+      <c r="B19" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
       <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
-        <v>420</v>
+      <c r="B20" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
-        <v>422</v>
+      <c r="B21" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
-        <v>423</v>
+      <c r="B22" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="1" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="1" spans="1:9">
       <c r="A25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="1" spans="1:9">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="5"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="6"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="6"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="6"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="6"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="6"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="6"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="6"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="6"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9377,7 +9405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -9385,22 +9413,22 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="28.8125" customWidth="1"/>
-    <col min="2" max="2" width="15.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="13.7589285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8214285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.9285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8839285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.0535714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.9910714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.9375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="98.9642857142857" customWidth="1"/>
-    <col min="11" max="11" width="33.1964285714286" customWidth="1"/>
+    <col min="1" max="1" width="28.8141592920354" customWidth="1"/>
+    <col min="2" max="2" width="15.0973451327434" customWidth="1"/>
+    <col min="3" max="3" width="13.7610619469027" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8230088495575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.929203539823" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8849557522124" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.0530973451327" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9911504424779" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.9380530973451" style="1" customWidth="1"/>
+    <col min="10" max="10" width="98.9646017699115" customWidth="1"/>
+    <col min="11" max="11" width="33.2035398230088" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9436,10 +9464,10 @@
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
       <c r="K2" s="8"/>
     </row>
@@ -9447,10 +9475,10 @@
       <c r="A3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="K3" s="8"/>
     </row>
@@ -9458,10 +9486,10 @@
       <c r="A4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="K4" s="8"/>
     </row>
@@ -9469,10 +9497,10 @@
       <c r="A5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="K5" s="8"/>
     </row>
@@ -9480,10 +9508,10 @@
       <c r="A6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="K6" s="8"/>
     </row>
@@ -9491,10 +9519,10 @@
       <c r="A7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="K7" s="8"/>
     </row>
@@ -9502,10 +9530,10 @@
       <c r="A8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="K8" s="8"/>
     </row>
@@ -9513,10 +9541,10 @@
       <c r="A9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="K9" s="8"/>
     </row>
@@ -9524,10 +9552,10 @@
       <c r="A10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="K10" s="8"/>
     </row>
@@ -9541,10 +9569,10 @@
       <c r="A12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="K12" s="8"/>
     </row>
@@ -9552,10 +9580,10 @@
       <c r="A13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="K13" s="8"/>
     </row>
@@ -9563,10 +9591,10 @@
       <c r="A14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="K14" s="8"/>
     </row>
@@ -9574,10 +9602,10 @@
       <c r="A15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="K15" s="8"/>
     </row>
@@ -9585,10 +9613,10 @@
       <c r="A16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="K16" s="8"/>
     </row>
@@ -9596,10 +9624,10 @@
       <c r="A17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="K17" s="8"/>
     </row>
@@ -9607,10 +9635,10 @@
       <c r="A18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="K18" s="8"/>
     </row>
@@ -9618,10 +9646,10 @@
       <c r="A19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="K19" s="8"/>
     </row>
@@ -9629,10 +9657,10 @@
       <c r="A20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="K20" s="8"/>
     </row>
@@ -9640,10 +9668,10 @@
       <c r="A21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="K21" s="8"/>
     </row>
@@ -9651,10 +9679,10 @@
       <c r="A22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="K22" s="8"/>
     </row>
@@ -9662,10 +9690,10 @@
       <c r="A23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="K23" s="8"/>
     </row>
@@ -9673,10 +9701,10 @@
       <c r="A24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
       <c r="K24" s="8"/>
     </row>
@@ -9684,10 +9712,10 @@
       <c r="A25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="K25" s="8"/>
     </row>
@@ -9883,29 +9911,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02678571428571" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="40.3928571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.4375" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="55.1339285714286" customWidth="1"/>
+    <col min="1" max="1" width="40.3893805309735" customWidth="1"/>
+    <col min="2" max="2" width="27.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.070796460177" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.4247787610619" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.070796460177" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.353982300885" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.716814159292" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.858407079646" style="1" customWidth="1"/>
+    <col min="10" max="10" width="55.1327433628319" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:10">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9941,122 +9969,122 @@
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="1" spans="1:9">
       <c r="A10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="1" spans="1:9">
       <c r="A11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -10071,624 +10099,624 @@
     </row>
     <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" customFormat="1" spans="1:9">
       <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="1" spans="1:9">
       <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="1" spans="1:9">
       <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="1" spans="1:9">
       <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" customFormat="1" spans="1:9">
       <c r="A27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" customFormat="1" spans="1:9">
       <c r="A28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" customFormat="1" spans="1:9">
       <c r="A29" s="4"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" customFormat="1" spans="1:9">
       <c r="A30" s="4"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" customFormat="1" spans="1:9">
       <c r="A31" s="4"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" customFormat="1" spans="1:9">
       <c r="A32" s="4"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" customFormat="1" spans="1:9">
       <c r="A33" s="4"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" customFormat="1" spans="1:9">
       <c r="A34" s="4"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" customFormat="1" spans="1:9">
       <c r="A35" s="4"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" customFormat="1" spans="1:9">
       <c r="A36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" customFormat="1" spans="1:9">
       <c r="A37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" customFormat="1" spans="1:9">
       <c r="A38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" customFormat="1" spans="1:9">
       <c r="A39" s="4"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" customFormat="1" spans="1:9">
       <c r="A40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" customFormat="1" spans="1:9">
       <c r="A41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" customFormat="1" spans="1:9">
       <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" customFormat="1" spans="1:9">
       <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" customFormat="1" spans="1:9">
       <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" customFormat="1" spans="1:9">
       <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" customFormat="1" spans="1:9">
       <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" customFormat="1" spans="1:9">
       <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" customFormat="1" spans="1:9">
       <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" customFormat="1" spans="1:9">
       <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" customFormat="1" spans="1:9">
       <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="5"/>
     </row>
     <row r="51" customFormat="1" spans="1:9">
       <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="5"/>
     </row>
     <row r="52" customFormat="1" spans="1:9">
       <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" customFormat="1" spans="1:9">
       <c r="A53" s="4"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" customFormat="1" spans="1:9">
       <c r="A54" s="4"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" customFormat="1" spans="1:9">
       <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" customFormat="1" spans="1:9">
       <c r="A56" s="4"/>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" customFormat="1" spans="1:9">
       <c r="A57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="5"/>
     </row>
     <row r="58" customFormat="1" spans="1:9">
       <c r="A58" s="4"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="5"/>
     </row>
     <row r="59" customFormat="1" spans="1:9">
       <c r="A59" s="4"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" customFormat="1" spans="1:9">
       <c r="A60" s="4"/>
-      <c r="B60" s="6"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" customFormat="1" spans="1:9">
       <c r="A61" s="4"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62" customFormat="1" spans="1:9">
       <c r="A62" s="4"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="5"/>
     </row>
     <row r="63" customFormat="1" spans="1:9">
       <c r="A63" s="4"/>
-      <c r="B63" s="6"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="5"/>
     </row>
     <row r="64" customFormat="1" spans="1:9">
       <c r="A64" s="4"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="5"/>
     </row>
     <row r="65" customFormat="1" spans="1:9">
       <c r="A65" s="4"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="5"/>
     </row>
     <row r="66" customFormat="1" spans="1:9">
       <c r="A66" s="4"/>
-      <c r="B66" s="6"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" customFormat="1" spans="1:9">
       <c r="A67" s="4"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" customFormat="1" spans="1:9">
       <c r="A68" s="4"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="5"/>
     </row>
     <row r="69" customFormat="1" spans="1:9">
       <c r="A69" s="4"/>
-      <c r="B69" s="6"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" customFormat="1" spans="1:9">
       <c r="A70" s="4"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" customFormat="1" spans="1:9">
       <c r="A71" s="4"/>
-      <c r="B71" s="6"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="5"/>
     </row>
     <row r="72" customFormat="1" spans="1:9">
       <c r="A72" s="4"/>
-      <c r="B72" s="6"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
       <c r="I72" s="5"/>
     </row>
     <row r="73" customFormat="1" spans="1:9">
       <c r="A73" s="4"/>
-      <c r="B73" s="6"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="5"/>
     </row>
     <row r="74" customFormat="1" spans="1:9">
       <c r="A74" s="4"/>
-      <c r="B74" s="6"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="1"/>
@@ -10698,7 +10726,7 @@
     </row>
     <row r="75" customFormat="1" spans="1:9">
       <c r="A75" s="4"/>
-      <c r="B75" s="6"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="1"/>
@@ -10708,7 +10736,7 @@
     </row>
     <row r="76" customFormat="1" spans="1:9">
       <c r="A76" s="4"/>
-      <c r="B76" s="6"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="1"/>
@@ -10718,7 +10746,7 @@
     </row>
     <row r="77" customFormat="1" spans="1:9">
       <c r="A77" s="4"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="1"/>
@@ -10728,7 +10756,7 @@
     </row>
     <row r="78" customFormat="1" spans="1:9">
       <c r="A78" s="4"/>
-      <c r="B78" s="6"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -10738,7 +10766,7 @@
     </row>
     <row r="79" customFormat="1" spans="1:9">
       <c r="A79" s="4"/>
-      <c r="B79" s="6"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -10748,7 +10776,7 @@
     </row>
     <row r="80" customFormat="1" spans="1:9">
       <c r="A80" s="4"/>
-      <c r="B80" s="6"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -10758,7 +10786,7 @@
     </row>
     <row r="81" customFormat="1" spans="1:9">
       <c r="A81" s="4"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="1"/>
@@ -10768,7 +10796,7 @@
     </row>
     <row r="82" customFormat="1" spans="1:9">
       <c r="A82" s="4"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="1"/>
@@ -10778,7 +10806,7 @@
     </row>
     <row r="83" customFormat="1" spans="1:9">
       <c r="A83" s="4"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="1"/>
@@ -10788,7 +10816,7 @@
     </row>
     <row r="84" customFormat="1" spans="1:9">
       <c r="A84" s="4"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="1"/>
@@ -10798,7 +10826,7 @@
     </row>
     <row r="85" customFormat="1" spans="1:9">
       <c r="A85" s="4"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="1"/>
@@ -10808,7 +10836,7 @@
     </row>
     <row r="86" customFormat="1" spans="1:9">
       <c r="A86" s="4"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="1"/>
@@ -10827,7 +10855,7 @@
     </row>
     <row r="88" customFormat="1" spans="1:9">
       <c r="A88" s="4"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="1"/>
@@ -10837,7 +10865,7 @@
     </row>
     <row r="89" customFormat="1" spans="1:9">
       <c r="A89" s="4"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="1"/>
@@ -10847,7 +10875,7 @@
     </row>
     <row r="90" customFormat="1" spans="1:9">
       <c r="A90" s="4"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="1"/>
@@ -10857,7 +10885,7 @@
     </row>
     <row r="91" customFormat="1" spans="1:9">
       <c r="A91" s="4"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="1"/>
@@ -10867,7 +10895,7 @@
     </row>
     <row r="92" customFormat="1" spans="1:9">
       <c r="A92" s="4"/>
-      <c r="B92" s="6"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="1"/>
@@ -10877,7 +10905,7 @@
     </row>
     <row r="93" customFormat="1" spans="1:9">
       <c r="A93" s="4"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="1"/>
@@ -10887,7 +10915,7 @@
     </row>
     <row r="94" customFormat="1" spans="1:9">
       <c r="A94" s="4"/>
-      <c r="B94" s="6"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="1"/>
@@ -10965,10 +10993,10 @@
       <c r="A105" s="4"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="6"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="6"/>
+      <c r="G117" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
